--- a/results/mp/logistic/corona/confidence/210/0.15/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
   <si>
     <t>anchor score</t>
   </si>
@@ -70,6 +70,9 @@
     <t>great</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
@@ -79,28 +82,37 @@
     <t>hand</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>won</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>heroes</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>heroes</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>join</t>
@@ -109,12 +121,6 @@
     <t>relief</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
@@ -124,10 +130,10 @@
     <t>well</t>
   </si>
   <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>hope</t>
-  </si>
-  <si>
-    <t>share</t>
   </si>
   <si>
     <t>care</t>
@@ -488,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -499,7 +505,7 @@
         <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -557,13 +563,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7397260273972602</v>
+        <v>0.7294520547945206</v>
       </c>
       <c r="C3">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D3">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -575,19 +581,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K3">
-        <v>0.9130434782608695</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -599,7 +605,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -607,13 +613,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.417989417989418</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="C4">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D4">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -625,19 +631,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K4">
-        <v>0.8983050847457628</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -649,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -681,13 +687,13 @@
         <v>16</v>
       </c>
       <c r="K5">
-        <v>0.8833333333333333</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L5">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M5">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -699,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -707,13 +713,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2080536912751678</v>
+        <v>0.2013422818791946</v>
       </c>
       <c r="C6">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -725,19 +731,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K6">
-        <v>0.8571428571428571</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L6">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M6">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -749,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -757,13 +763,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.1333333333333333</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C7">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D7">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -775,19 +781,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K7">
-        <v>0.8448275862068966</v>
+        <v>0.8113207547169812</v>
       </c>
       <c r="L7">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="M7">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -799,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -807,13 +813,13 @@
         <v>19</v>
       </c>
       <c r="K8">
-        <v>0.8292682926829268</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L8">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="M8">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -825,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -833,13 +839,13 @@
         <v>20</v>
       </c>
       <c r="K9">
-        <v>0.8093994778067886</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L9">
-        <v>310</v>
+        <v>66</v>
       </c>
       <c r="M9">
-        <v>310</v>
+        <v>66</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -851,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -859,13 +865,13 @@
         <v>21</v>
       </c>
       <c r="K10">
-        <v>0.8055555555555556</v>
+        <v>0.793733681462141</v>
       </c>
       <c r="L10">
-        <v>29</v>
+        <v>304</v>
       </c>
       <c r="M10">
-        <v>29</v>
+        <v>304</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -877,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -885,13 +891,13 @@
         <v>22</v>
       </c>
       <c r="K11">
-        <v>0.7887323943661971</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L11">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="M11">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -903,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -911,13 +917,13 @@
         <v>23</v>
       </c>
       <c r="K12">
-        <v>0.7830188679245284</v>
+        <v>0.765625</v>
       </c>
       <c r="L12">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="M12">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -929,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -937,13 +943,13 @@
         <v>24</v>
       </c>
       <c r="K13">
-        <v>0.7692307692307693</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="L13">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="M13">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -955,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -963,13 +969,13 @@
         <v>25</v>
       </c>
       <c r="K14">
-        <v>0.765625</v>
+        <v>0.75</v>
       </c>
       <c r="L14">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="M14">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -981,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -989,13 +995,13 @@
         <v>26</v>
       </c>
       <c r="K15">
-        <v>0.75</v>
+        <v>0.74375</v>
       </c>
       <c r="L15">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M15">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1007,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1015,13 +1021,13 @@
         <v>27</v>
       </c>
       <c r="K16">
-        <v>0.7291666666666666</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L16">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="M16">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1033,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1041,13 +1047,13 @@
         <v>28</v>
       </c>
       <c r="K17">
-        <v>0.723404255319149</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="L17">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="M17">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1059,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1067,13 +1073,13 @@
         <v>29</v>
       </c>
       <c r="K18">
-        <v>0.6744186046511628</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L18">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M18">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1093,13 +1099,13 @@
         <v>30</v>
       </c>
       <c r="K19">
-        <v>0.62</v>
+        <v>0.6875</v>
       </c>
       <c r="L19">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M19">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1111,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1119,13 +1125,13 @@
         <v>31</v>
       </c>
       <c r="K20">
-        <v>0.6031746031746031</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="L20">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M20">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1137,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1145,13 +1151,13 @@
         <v>32</v>
       </c>
       <c r="K21">
-        <v>0.5852941176470589</v>
+        <v>0.611764705882353</v>
       </c>
       <c r="L21">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="M21">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1163,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1171,13 +1177,13 @@
         <v>33</v>
       </c>
       <c r="K22">
-        <v>0.5648535564853556</v>
+        <v>0.6046511627906976</v>
       </c>
       <c r="L22">
-        <v>135</v>
+        <v>26</v>
       </c>
       <c r="M22">
-        <v>135</v>
+        <v>26</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1189,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>104</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1197,13 +1203,13 @@
         <v>34</v>
       </c>
       <c r="K23">
-        <v>0.5559322033898305</v>
+        <v>0.58</v>
       </c>
       <c r="L23">
-        <v>164</v>
+        <v>29</v>
       </c>
       <c r="M23">
-        <v>164</v>
+        <v>29</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1215,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>131</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1223,13 +1229,13 @@
         <v>35</v>
       </c>
       <c r="K24">
-        <v>0.5425531914893617</v>
+        <v>0.5774058577405857</v>
       </c>
       <c r="L24">
-        <v>51</v>
+        <v>138</v>
       </c>
       <c r="M24">
-        <v>51</v>
+        <v>138</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1241,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>43</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1249,13 +1255,13 @@
         <v>36</v>
       </c>
       <c r="K25">
-        <v>0.5230769230769231</v>
+        <v>0.5525423728813559</v>
       </c>
       <c r="L25">
-        <v>34</v>
+        <v>163</v>
       </c>
       <c r="M25">
-        <v>34</v>
+        <v>163</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1267,7 +1273,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>31</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1275,13 +1281,13 @@
         <v>37</v>
       </c>
       <c r="K26">
-        <v>0.4857142857142857</v>
+        <v>0.5106382978723404</v>
       </c>
       <c r="L26">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="M26">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1293,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1301,25 +1307,77 @@
         <v>38</v>
       </c>
       <c r="K27">
-        <v>0.449438202247191</v>
+        <v>0.5</v>
       </c>
       <c r="L27">
+        <v>35</v>
+      </c>
+      <c r="M27">
+        <v>35</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K28">
+        <v>0.4923076923076923</v>
+      </c>
+      <c r="L28">
+        <v>32</v>
+      </c>
+      <c r="M28">
+        <v>32</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M27">
-        <v>40</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>49</v>
+      <c r="K29">
+        <v>0.4157303370786517</v>
+      </c>
+      <c r="L29">
+        <v>37</v>
+      </c>
+      <c r="M29">
+        <v>37</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
